--- a/titulos_enviados_19-02-2025.xlsx
+++ b/titulos_enviados_19-02-2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +622,48 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Simple Solution True Fit - Pañales desechables para perros femeninos, superabsorbentes con indicador de humedad, tamaño mediano, 12 unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hot Wheels RacerVerse Pista de Juguete Jurassic World para niños de 4 años en adelante</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LUMO HOME Colchon Premium 7 Capas de Memory de Grosor Transpirable Brinda Frescura al Dormir Anti Ácaros e Hipoalergénico| Enviado en Caja (Blanco, Matrimonial, 18, Centímetros)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Czgor Lámpara de mesa inalámbrica recargable, lámpara de mesa con batería de 5200 mAh, lámpara de mesa portátil inalámbrica con atenuación continua de 3 colores para restaurante bar (negro)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Behringer UMC22 equipo de música adicional - equipos de música adicionales Negro</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Coleman Tienda Montana 8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
